--- a/medicine/Enfance/Jean_Claverie/Jean_Claverie.xlsx
+++ b/medicine/Enfance/Jean_Claverie/Jean_Claverie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Claverie, né à Beaune (Côte-d'Or) le 4 janvier 1946, est un auteur de littérature jeunesse et un illustrateur français.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Claverie a fait ses études dans l'atelier de Louis Charrat à l’École nationale des beaux-arts de Lyon, puis à l’École des arts décoratifs de Genève en Suisse.
 Il a d’abord travaillé en tant qu’illustrateur de publicité puis, à partir de 1977, s’est spécialisé dans le domaine du livre pour la jeunesse. Il a illustré, entre autres auteurs, Oscar Wilde, Charles Perrault, Ludwig Bechstein, Isaac Bashevis Singer, Michel Tournier, Paul Auster. Il a réalisé une cinquantaine d’albums, de nombreuses couvertures de livres et affiches institutionnelles.
 Il enseigne à l’École nationale des beaux-arts de Lyon et à l’École Émile-Cohl de la même ville.
 Il est également musicien : chant, piano, guitare. Il fait partie de l'orchestre Wood bee band, mais surtout du quartet de blues baptisé d'après le petit pianiste noir imaginé par Claverie : Little Lou tour. Depuis 2003, cette formation propose, principalement aux enseignants, un concert « pédagogique » évoquant l'histoire du blues, et a publié un CD, Tacot blues.
-Il a été récompensés par de nombreux prix, dont des prix internationaux : il reçoit en 1983 la Plaque d'Or de la Biennale d'illustration de Bratislava (BIB)[1], pour ses illustrations de l'ouvrage Trois contes (texte de Ludwig Bechstein), et en 1991, il est honoré de la « Mention » Prix graphique, à la Foire du livre de jeunesse de Bologne, pour Little Lou, qu'il a écrit et illustré.
+Il a été récompensés par de nombreux prix, dont des prix internationaux : il reçoit en 1983 la Plaque d'Or de la Biennale d'illustration de Bratislava (BIB), pour ses illustrations de l'ouvrage Trois contes (texte de Ludwig Bechstein), et en 1991, il est honoré de la « Mention » Prix graphique, à la Foire du livre de jeunesse de Bologne, pour Little Lou, qu'il a écrit et illustré.
 Il vit près de Lyon avec sa femme, Michelle Nikly, qui travaille aussi pour l’édition jeunesse. Ils ont deux enfants, Louis et François, nés respectivement en 1977 et 1982.
 </t>
         </is>
@@ -547,16 +561,18 @@
           <t>Expositions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Liste non exhaustive
 1978 : Centre Pompidou, originaux de Que ma joie demeure de Michel Tournier (Gallimard).
 1992 : rétrospective à la Maison du Livre de l’image et du son de Villeurbanne, en coproduction avec Les Plateaux, Scène nationale à Angoulême : Le Joueur d’Images.
 1998 : Limoges, bibliothèque francophone multimédia.
-2001 : Paris, Bibliothèque nationale de France, exposition collective sur les contes de fées[2].
+2001 : Paris, Bibliothèque nationale de France, exposition collective sur les contes de fées.
 2003 : Échirolles, Maison des Écrits, Illustrations et dessins de marges.
 2005 : musée Norman Rockwell, Once upon a time, exposition collective de Creative Company.
-2006-2007 : Moulins, rétrospective au Musée de l'illustration jeunesse[3].</t>
+2006-2007 : Moulins, rétrospective au Musée de l'illustration jeunesse.</t>
         </is>
       </c>
     </row>
@@ -584,7 +600,9 @@
           <t>Œuvres dans les collections publiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Liste non exhaustive 
 En France
@@ -618,23 +636,25 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1981 : Prix graphique Loisirs Jeunes pour La Princesse de Noix
 1981 : Club des directeurs artistiques, nomination pour la campagne Johnny Walker, TBWA
-1983 :  Plaque d'Or de la Biennale d'illustration de Bratislava (BIB)[1] pour Trois Contes
-1984 : (international) liste d'honneur de l'IBBY[4], catégorie Illustration, pour Le Mot interdit
+1983 :  Plaque d'Or de la Biennale d'illustration de Bratislava (BIB) pour Trois Contes
+1984 : (international) liste d'honneur de l'IBBY, catégorie Illustration, pour Le Mot interdit
 1988 : Prix de l’humour (Beaugency) pour Musée Blues
 1990 : Totem de l’album (Montreuil) pour Little Lou
 1990 : Bulle d’or (Brignais) pour Little Lou
-1990 : Prix Octogone (musique) décerné par le CIELJ[5]pour Little Lou
+1990 : Prix Octogone (musique) décerné par le CIELJpour Little Lou
 1991 :  « Mention » Prix graphique, Foire du livre de jeunesse de Bologne pour Little Lou
 1990 : Prix graphique Octogone pour Julien
 1991 : prix Sorcières de l’album pour L'Art du pot
 1991 : Prix des libraires (Paris) pour L’Art du pot
 1991 : Prix de l’affiche de livre (Rouen) pour L’Art du pot
 1998 : Prix coup de cœur Bulle d'or (Brignais) pour Le Noël d'Auggie Wren
-2019 :  Prix des libraires du Québec[6] catégorie Jeunesse pour Mon frère et moi</t>
+2019 :  Prix des libraires du Québec catégorie Jeunesse pour Mon frère et moi</t>
         </is>
       </c>
     </row>
@@ -664,8 +684,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Albums[7]
-Le Joueur de flûte de Hamelin, texte de Kurt Baumann, Lotus-Garnier, 1977
+          <t>Albums[7]</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le Joueur de flûte de Hamelin, texte de Kurt Baumann, Lotus-Garnier, 1977
 Le Village vert se rebiffe, texte de Michelle Nikly, préface de Brice Lalonde, Gallimard, 1978
 Le Prince heureux, texte d'Oscar Wilde, Nord-Sud, 1980
 L'Auberge de la peur, texte d'Isaac Bashevis Singer, Hachette, coll. « Tapis Volant », 1980
@@ -711,9 +736,43 @@
 Mon frère et moi, texte de Yves Nadon, Gallimard Jeunesse, 2018
 Le point de vue de l'observateur, texte de Jean Claverie, éditions du Poutan, 2018
 Le dernier bal, texte de Jean Claverie, Albin Michel Jeunesse, 2021
-Le Cygne, texte de Roald Dahl, D'eux, 2022
-Presse
-Les Boutons de Bérangère, texte de Xavier Bied-Charreton, Belles Histoires de Pomme d'Api, Bayard-Presse, 1980 ; Bayard, 1994
+Le Cygne, texte de Roald Dahl, D'eux, 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jean_Claverie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Claverie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Presse</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Les Boutons de Bérangère, texte de Xavier Bied-Charreton, Belles Histoires de Pomme d'Api, Bayard-Presse, 1980 ; Bayard, 1994
 Le Pêcheur d'oiseaux, texte de Nicole Schneegans, J'aime lire, Bayard Presse, 1980 ; Bayard Poche, 1990
 Le Mot interdit, texte de Nicolas de Hirsching, J'aime lire, Bayard Presse, 1982 ; Bayard Poche, 1990
 Les Peurs de Petit-Jean, texte de René Escudié, Les Belles Histoires de Pomme d'Api, Bayard Presse, 1982 ; Bayard Poche, 1990
